--- a/biology/Zoologie/Bécasseau_du_ressac/Bécasseau_du_ressac.xlsx
+++ b/biology/Zoologie/Bécasseau_du_ressac/Bécasseau_du_ressac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_du_ressac</t>
+          <t>Bécasseau_du_ressac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callidris virgata
 Le Bécasseau du ressac (Calidris virgata - anciennement Aphriza virgata) ou échassier du ressac, est une espèce d'oiseaux de la famille des Scolopacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_du_ressac</t>
+          <t>Bécasseau_du_ressac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 23 – 26 cm pour 133 - 251 g et une envergure de 55 cm.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_du_ressac</t>
+          <t>Bécasseau_du_ressac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se reproduit dans les zones couvertes de mousses des toundras montagneuses. Comme le Bécasseau violet, il se rencontre surtout sur les côtes rocheuses en période internuptiale et s'alimente parfois sur les laisses de mer des plages sableuses.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_du_ressac</t>
+          <t>Bécasseau_du_ressac</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
